--- a/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_stop_10_rdtov16_202206_bauchy.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2023/june/ng_oncho_stop_10_rdtov16_202206_bauchy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2023\june\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1F0BD-FD16-4E5D-8C22-CAD01F95AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EB8FED-908C-4B6B-9088-84E9B9E726CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="153">
   <si>
     <t>type</t>
   </si>
@@ -126,24 +126,9 @@
     <t>${d_Cluster_Name} = community</t>
   </si>
   <si>
-    <t>select_one yesNo</t>
-  </si>
-  <si>
-    <t>d_LabOV162ndTest</t>
-  </si>
-  <si>
-    <t>Is this a second OV16 test</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>d_lotnumber</t>
-  </si>
-  <si>
-    <t>Enter RDT batch number</t>
-  </si>
-  <si>
     <t>d_serial_number1</t>
   </si>
   <si>
@@ -177,33 +162,6 @@
     <t>concat(${d_recorder_id}, '-', ${d_cluster_id}, '-', ${d_serial_number1})</t>
   </si>
   <si>
-    <t>select_one results</t>
-  </si>
-  <si>
-    <t>d_LabOV16</t>
-  </si>
-  <si>
-    <t>RDT OV16 test result</t>
-  </si>
-  <si>
-    <t>select_one why_invalid</t>
-  </si>
-  <si>
-    <t>d_LabOV16Invalid</t>
-  </si>
-  <si>
-    <t>Invalid Result Details</t>
-  </si>
-  <si>
-    <t>${d_LabOV16} = 'Invalid'</t>
-  </si>
-  <si>
-    <t>d_LabOV16Invalid_other</t>
-  </si>
-  <si>
-    <t>${d_LabOV16Invalid} = 'Other'</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -345,12 +303,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>ng_oncho_stop_10_rdtov16_202206_bauchy</t>
-  </si>
-  <si>
-    <t>(2023 July) - 10. (Bauchi) RDT OV16 Form</t>
-  </si>
-  <si>
     <t>BAUCHI</t>
   </si>
   <si>
@@ -502,6 +454,33 @@
   </si>
   <si>
     <t>TIKIRZE</t>
+  </si>
+  <si>
+    <t>(2023 July) - 10. (Bauchi) ELISA Form</t>
+  </si>
+  <si>
+    <t>ng_oncho_stop_10_elisa_202206_bauchy</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>d_elisa_value_od</t>
+  </si>
+  <si>
+    <t>d_elisa_result</t>
+  </si>
+  <si>
+    <t>result_elisa</t>
+  </si>
+  <si>
+    <t>select_one result_elisa</t>
+  </si>
+  <si>
+    <t>ELISA - Value OD</t>
+  </si>
+  <si>
+    <t>ELISA - Final decision</t>
   </si>
 </sst>
 </file>
@@ -517,6 +496,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,13 +513,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -603,16 +582,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -623,26 +599,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -652,6 +609,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,71 +917,72 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="47.375" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="22" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="21.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="36.625" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="37.5">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="37.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="31.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="31.5">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1011,373 +991,344 @@
       <c r="D2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1">
-      <c r="A3" s="20" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" s="9" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1">
-      <c r="A4" s="20" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:12" s="9" customFormat="1">
+      <c r="A5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:12" s="9" customFormat="1">
+      <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="10" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:12" s="9" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="9" customFormat="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="31.5">
+      <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1">
-      <c r="A8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="47.25">
+      <c r="A10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
+      <c r="C10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="31.5">
-      <c r="A9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="47.25">
+      <c r="A11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="5" t="s">
+      <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="47.25">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="K11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" s="9" customFormat="1">
+      <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="47.25">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" s="9" customFormat="1">
+      <c r="A16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1">
-      <c r="A12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="31.5">
-      <c r="A13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="31.5">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" s="3" customFormat="1">
-      <c r="A16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1">
+      <c r="A17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD112"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1388,1472 +1339,1507 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C10" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31.5">
-      <c r="A11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="8" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="9"/>
+      <c r="A20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
+      <c r="C21" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>109</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>109</v>
+        <v>95</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>109</v>
+        <v>97</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>201</v>
+      </c>
+      <c r="C80">
+        <v>201</v>
+      </c>
+      <c r="F80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81">
+        <v>202</v>
+      </c>
+      <c r="C81">
+        <v>202</v>
+      </c>
+      <c r="F81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>203</v>
+      </c>
+      <c r="C82">
+        <v>203</v>
+      </c>
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>204</v>
+      </c>
+      <c r="C83">
+        <v>204</v>
+      </c>
+      <c r="F83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>205</v>
+      </c>
+      <c r="C84">
+        <v>205</v>
+      </c>
+      <c r="F84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>206</v>
+      </c>
+      <c r="C85">
+        <v>206</v>
+      </c>
+      <c r="F85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>207</v>
+      </c>
+      <c r="C86">
+        <v>207</v>
+      </c>
+      <c r="F86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>208</v>
+      </c>
+      <c r="C87">
+        <v>208</v>
+      </c>
+      <c r="F87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>209</v>
+      </c>
+      <c r="C88">
+        <v>209</v>
+      </c>
+      <c r="F88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>210</v>
+      </c>
+      <c r="C89">
+        <v>210</v>
+      </c>
+      <c r="F89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>211</v>
+      </c>
+      <c r="C90">
+        <v>211</v>
+      </c>
+      <c r="F90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>212</v>
+      </c>
+      <c r="C91">
+        <v>212</v>
+      </c>
+      <c r="F91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <v>213</v>
+      </c>
+      <c r="C92">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93">
+        <v>214</v>
+      </c>
+      <c r="C93">
+        <v>214</v>
+      </c>
+      <c r="F93" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77">
-        <v>201</v>
-      </c>
-      <c r="C77">
-        <v>201</v>
-      </c>
-      <c r="F77" t="s">
+    <row r="94" spans="1:6">
+      <c r="A94" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94">
+        <v>215</v>
+      </c>
+      <c r="C94">
+        <v>215</v>
+      </c>
+      <c r="F94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <v>216</v>
+      </c>
+      <c r="C95">
+        <v>216</v>
+      </c>
+      <c r="F95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96">
+        <v>217</v>
+      </c>
+      <c r="C96">
+        <v>217</v>
+      </c>
+      <c r="F96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97">
+        <v>218</v>
+      </c>
+      <c r="C97">
+        <v>218</v>
+      </c>
+      <c r="F97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98">
+        <v>219</v>
+      </c>
+      <c r="C98">
+        <v>219</v>
+      </c>
+      <c r="F98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99">
+        <v>220</v>
+      </c>
+      <c r="C99">
+        <v>220</v>
+      </c>
+      <c r="F99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100">
+        <v>221</v>
+      </c>
+      <c r="C100">
+        <v>221</v>
+      </c>
+      <c r="F100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101">
+        <v>222</v>
+      </c>
+      <c r="C101">
+        <v>222</v>
+      </c>
+      <c r="F101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102">
+        <v>223</v>
+      </c>
+      <c r="C102">
+        <v>223</v>
+      </c>
+      <c r="F102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B103">
+        <v>224</v>
+      </c>
+      <c r="C103">
+        <v>224</v>
+      </c>
+      <c r="F103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104">
+        <v>225</v>
+      </c>
+      <c r="C104">
+        <v>225</v>
+      </c>
+      <c r="F104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105">
+        <v>226</v>
+      </c>
+      <c r="C105">
+        <v>226</v>
+      </c>
+      <c r="F105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106">
+        <v>227</v>
+      </c>
+      <c r="C106">
+        <v>227</v>
+      </c>
+      <c r="F106" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78">
-        <v>202</v>
-      </c>
-      <c r="C78">
-        <v>202</v>
-      </c>
-      <c r="F78" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B79">
-        <v>203</v>
-      </c>
-      <c r="C79">
-        <v>203</v>
-      </c>
-      <c r="F79" t="s">
+    <row r="107" spans="1:6">
+      <c r="A107" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107">
+        <v>228</v>
+      </c>
+      <c r="C107">
+        <v>228</v>
+      </c>
+      <c r="F107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108">
+        <v>229</v>
+      </c>
+      <c r="C108">
+        <v>229</v>
+      </c>
+      <c r="F108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109">
+        <v>230</v>
+      </c>
+      <c r="C109">
+        <v>230</v>
+      </c>
+      <c r="F109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110">
+        <v>231</v>
+      </c>
+      <c r="C110">
+        <v>231</v>
+      </c>
+      <c r="F110" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B80">
-        <v>204</v>
-      </c>
-      <c r="C80">
-        <v>204</v>
-      </c>
-      <c r="F80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81">
-        <v>205</v>
-      </c>
-      <c r="C81">
-        <v>205</v>
-      </c>
-      <c r="F81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82">
-        <v>206</v>
-      </c>
-      <c r="C82">
-        <v>206</v>
-      </c>
-      <c r="F82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83">
-        <v>207</v>
-      </c>
-      <c r="C83">
-        <v>207</v>
-      </c>
-      <c r="F83" t="s">
+    <row r="111" spans="1:6">
+      <c r="A111" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111">
+        <v>232</v>
+      </c>
+      <c r="C111">
+        <v>232</v>
+      </c>
+      <c r="F111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84">
-        <v>208</v>
-      </c>
-      <c r="C84">
-        <v>208</v>
-      </c>
-      <c r="F84" t="s">
+    <row r="112" spans="1:6">
+      <c r="A112" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B112">
+        <v>233</v>
+      </c>
+      <c r="C112">
+        <v>233</v>
+      </c>
+      <c r="F112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113">
+        <v>234</v>
+      </c>
+      <c r="C113">
+        <v>234</v>
+      </c>
+      <c r="F113" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85">
-        <v>209</v>
-      </c>
-      <c r="C85">
-        <v>209</v>
-      </c>
-      <c r="F85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B86">
-        <v>210</v>
-      </c>
-      <c r="C86">
-        <v>210</v>
-      </c>
-      <c r="F86" t="s">
+    <row r="114" spans="1:6">
+      <c r="A114" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114">
+        <v>235</v>
+      </c>
+      <c r="C114">
+        <v>235</v>
+      </c>
+      <c r="F114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115">
+        <v>236</v>
+      </c>
+      <c r="C115">
+        <v>236</v>
+      </c>
+      <c r="F115" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87">
-        <v>211</v>
-      </c>
-      <c r="C87">
-        <v>211</v>
-      </c>
-      <c r="F87" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B88">
-        <v>212</v>
-      </c>
-      <c r="C88">
-        <v>212</v>
-      </c>
-      <c r="F88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89">
-        <v>213</v>
-      </c>
-      <c r="C89">
-        <v>213</v>
-      </c>
-      <c r="F89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90">
-        <v>214</v>
-      </c>
-      <c r="C90">
-        <v>214</v>
-      </c>
-      <c r="F90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91">
-        <v>215</v>
-      </c>
-      <c r="C91">
-        <v>215</v>
-      </c>
-      <c r="F91" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B92">
-        <v>216</v>
-      </c>
-      <c r="C92">
-        <v>216</v>
-      </c>
-      <c r="F92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93">
-        <v>217</v>
-      </c>
-      <c r="C93">
-        <v>217</v>
-      </c>
-      <c r="F93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94">
-        <v>218</v>
-      </c>
-      <c r="C94">
-        <v>218</v>
-      </c>
-      <c r="F94" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95">
-        <v>219</v>
-      </c>
-      <c r="C95">
-        <v>219</v>
-      </c>
-      <c r="F95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96">
-        <v>220</v>
-      </c>
-      <c r="C96">
-        <v>220</v>
-      </c>
-      <c r="F96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>221</v>
-      </c>
-      <c r="C97">
-        <v>221</v>
-      </c>
-      <c r="F97" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98">
-        <v>222</v>
-      </c>
-      <c r="C98">
-        <v>222</v>
-      </c>
-      <c r="F98" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99">
-        <v>223</v>
-      </c>
-      <c r="C99">
-        <v>223</v>
-      </c>
-      <c r="F99" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100">
-        <v>224</v>
-      </c>
-      <c r="C100">
-        <v>224</v>
-      </c>
-      <c r="F100" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101">
-        <v>225</v>
-      </c>
-      <c r="C101">
-        <v>225</v>
-      </c>
-      <c r="F101" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102">
-        <v>226</v>
-      </c>
-      <c r="C102">
-        <v>226</v>
-      </c>
-      <c r="F102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>227</v>
-      </c>
-      <c r="C103">
-        <v>227</v>
-      </c>
-      <c r="F103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>228</v>
-      </c>
-      <c r="C104">
-        <v>228</v>
-      </c>
-      <c r="F104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105">
-        <v>229</v>
-      </c>
-      <c r="C105">
-        <v>229</v>
-      </c>
-      <c r="F105" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106">
-        <v>230</v>
-      </c>
-      <c r="C106">
-        <v>230</v>
-      </c>
-      <c r="F106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107">
-        <v>231</v>
-      </c>
-      <c r="C107">
-        <v>231</v>
-      </c>
-      <c r="F107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108">
-        <v>232</v>
-      </c>
-      <c r="C108">
-        <v>232</v>
-      </c>
-      <c r="F108" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109">
-        <v>233</v>
-      </c>
-      <c r="C109">
-        <v>233</v>
-      </c>
-      <c r="F109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B110">
-        <v>234</v>
-      </c>
-      <c r="C110">
-        <v>234</v>
-      </c>
-      <c r="F110" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111">
-        <v>235</v>
-      </c>
-      <c r="C111">
-        <v>235</v>
-      </c>
-      <c r="F111" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B112">
-        <v>236</v>
-      </c>
-      <c r="C112">
-        <v>236</v>
-      </c>
-      <c r="F112" t="s">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:B55">
-    <sortCondition ref="B11:B55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:B58">
+    <sortCondition ref="B11:B58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2864,7 +2850,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2875,24 +2861,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>107</v>
+      <c r="A2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
